--- a/conditions/schedules/train_x_first/red_square_00/top_right/inputTrain_1.6.xlsx
+++ b/conditions/schedules/train_x_first/red_square_00/top_right/inputTrain_1.6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giancarlodeiana/Desktop/g-casa_children_task/conditions/schedules/train_x_first/x_increasing_steps/bottom_right/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giancarlodeiana/Desktop/root_folder/g-casa_children_task/conditions/schedules/train_x_first/red_square_00/top_right/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00057A1F-695A-3C43-89C1-510A942C3575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7748090-2748-4B45-B08E-94CE8DA45099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,7 +408,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -456,19 +456,19 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>7</v>
       </c>
       <c r="F2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I2">
         <v>5</v>
